--- a/Data/china_watch_combined.xlsx
+++ b/Data/china_watch_combined.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshberry/Documents - Harvard University/2020-2021/Thesis/chinawatch/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{182C0E30-9DA1-724A-96F7-1D6E387B4B8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6049A835-7DF9-6449-ADFC-330FDF7F79D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="china_watch_dlabbs" sheetId="1" r:id="rId1"/>
@@ -2368,7 +2368,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3206,11 +3206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DK146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O129" sqref="O129"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="81" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -32839,7 +32839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BF46"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" zoomScale="60" workbookViewId="0">
